--- a/inst/extdata/expt_smry_psmfiles.xlsx
+++ b/inst/extdata/expt_smry_psmfiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B59199-78D9-4BA1-9C46-BFA372C946ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C9360-5491-4979-9BBF-4DA47A3C9DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,138 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Qiang Zhang</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F068E2D1-1CC3-4800-B2A4-DB55EE0B053C}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unique</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> sample IDs 
+(Enter "?setup_expts" under an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> console for details of the column keys.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{23E43409-622C-42C6-AC82-B66A1A04047D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The file names of RAW MS data
+(Enter alternatively the file names in </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac_smry.xlsx</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> if more than one RAW file per TMT set)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BE371E99-1AD1-465F-9CFB-FAA88D65CB07}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Non-void character strings to indicate refernce channels.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0FA64558-C266-483D-913E-430961E1E69B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Samples to be selected for analyses 
+(Enter "?setup_expts" under an </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>R</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> console for details of the column keys.)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="219">
   <si>
@@ -683,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +827,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -844,14 +1003,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -877,6 +1030,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1158,119 +1323,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9681046-BAF9-4227-9E47-26FD099BF983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9681046-BAF9-4227-9E47-26FD099BF983}">
   <dimension ref="A1:AI121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="7" t="s">
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6862,5 +7038,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/expt_smry_psmfiles.xlsx
+++ b/inst/extdata/expt_smry_psmfiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290C9360-5491-4979-9BBF-4DA47A3C9DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD9375A-8E33-4D9D-9849-FF6A93BDCD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> sample IDs 
-(Enter "?setup_expts" under an </t>
+(Enter "?load_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Samples to be selected for analyses 
-(Enter "?setup_expts" under an </t>
+(Enter "?load_expts" under an </t>
         </r>
         <r>
           <rPr>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:AI121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
